--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107413A-635F-4865-98AA-B79204F6E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E6153-D40B-4B62-850F-DDC8784B9ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -192,13 +192,16 @@
   </si>
   <si>
     <t>Quiz02(10)</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,6 +222,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -344,11 +360,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,45 +401,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,116 +784,121 @@
     <col min="10" max="10" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="13" max="13" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.8">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.8">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.8">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.8">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
@@ -853,11 +920,12 @@
       <c r="K7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -869,17 +937,21 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="16">
+      <c r="F8" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24">
+        <f>SUM(E8:L8)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -891,17 +963,21 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="16">
+      <c r="F9" s="21">
         <v>5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24">
+        <f t="shared" ref="M9:M26" si="0">SUM(E9:L9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -913,17 +989,21 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16">
+      <c r="F10" s="21">
         <v>1.8</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -935,17 +1015,21 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16">
+      <c r="F11" s="21">
         <v>5.55</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24">
+        <f t="shared" si="0"/>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -957,17 +1041,21 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16">
+      <c r="F12" s="21">
         <v>1.5</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -979,17 +1067,21 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16">
+      <c r="F13" s="21">
         <v>1.9</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1001,17 +1093,21 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16">
+      <c r="F14" s="21">
         <v>1.4</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1023,17 +1119,21 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16">
+      <c r="F15" s="21">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1045,17 +1145,21 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16">
+      <c r="F16" s="21">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1067,17 +1171,21 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="16">
+      <c r="F17" s="21">
         <v>3.65</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24">
+        <f t="shared" si="0"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1089,17 +1197,21 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="16">
+      <c r="F18" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1111,17 +1223,21 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="16">
+      <c r="F19" s="21">
         <v>2.1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1133,17 +1249,21 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="16">
+      <c r="F20" s="21">
         <v>5.2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1155,17 +1275,21 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="16">
+      <c r="F21" s="21">
         <v>1.7</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1177,17 +1301,21 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="16">
+      <c r="F22" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1199,17 +1327,21 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="16">
+      <c r="F23" s="21">
         <v>2.35</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24">
+        <f t="shared" si="0"/>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1221,17 +1353,21 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="16">
+      <c r="F24" s="21">
         <v>1.8</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1243,17 +1379,21 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="16">
+      <c r="F25" s="21">
         <v>2.15</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1265,36 +1405,60 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="16">
+      <c r="F26" s="21">
         <v>1.55</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18">
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.8">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
         <f>AVERAGE(F8:F26)</f>
         <v>2.6736842105263152</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -1304,25 +1468,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
